--- a/regions/6/mretsveloba/mretsveloba.xlsx
+++ b/regions/6/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +506,7 @@
     <col min="1" max="1" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6">
         <v>2006</v>
@@ -571,8 +571,14 @@
       <c r="P2" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -621,8 +627,14 @@
       <c r="P3" s="8">
         <v>1396.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8">
+        <v>2791.4</v>
+      </c>
+      <c r="R3" s="8">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -671,8 +683,14 @@
       <c r="P4" s="8">
         <v>1394.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="8">
+        <v>2349.1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -721,8 +739,14 @@
       <c r="P5" s="9">
         <v>16717</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="9">
+        <v>17185</v>
+      </c>
+      <c r="R5" s="9">
+        <v>16862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -771,8 +795,14 @@
       <c r="P6" s="9">
         <v>15969</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9">
+        <v>16565</v>
+      </c>
+      <c r="R6" s="9">
+        <v>16237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -821,8 +851,14 @@
       <c r="P7" s="8">
         <v>1085.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="8">
+        <v>1289.4000000000001</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1745.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -871,8 +907,14 @@
       <c r="P8" s="8">
         <v>916.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8">
+        <v>1551.1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1629.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -921,8 +963,14 @@
       <c r="P9" s="8">
         <v>215.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="R9" s="8">
+        <v>348.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
@@ -971,8 +1019,14 @@
       <c r="P10" s="8">
         <v>477.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8">
+        <v>798</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1081.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -1021,8 +1075,14 @@
       <c r="P11" s="8">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8">
+        <v>49.7</v>
+      </c>
+      <c r="R11" s="8">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
@@ -1071,8 +1131,14 @@
       <c r="P12" s="8">
         <v>919.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="8">
+        <v>2177</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2452.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1087,7 +1153,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1102,12 +1168,12 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/regions/6/mretsveloba/mretsveloba.xlsx
+++ b/regions/6/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +506,7 @@
     <col min="1" max="1" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6">
         <v>2006</v>
@@ -577,8 +577,11 @@
       <c r="R2" s="7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -633,8 +636,11 @@
       <c r="R3" s="8">
         <v>3325</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="8">
+        <v>2221.1999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -689,8 +695,11 @@
       <c r="R4" s="8">
         <v>2711</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="8">
+        <v>1940.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -745,8 +754,11 @@
       <c r="R5" s="9">
         <v>16862</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="9">
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -801,8 +813,11 @@
       <c r="R6" s="9">
         <v>16237</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="9">
+        <v>16329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -857,8 +872,11 @@
       <c r="R7" s="8">
         <v>1745.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="8">
+        <v>1378.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -913,8 +931,11 @@
       <c r="R8" s="8">
         <v>1629.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="8">
+        <v>1499.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -969,8 +990,11 @@
       <c r="R9" s="8">
         <v>348.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1049,11 @@
       <c r="R10" s="8">
         <v>1081.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="8">
+        <v>441.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1108,11 @@
       <c r="R11" s="8">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="8">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
@@ -1137,8 +1167,11 @@
       <c r="R12" s="8">
         <v>2452.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="8">
+        <v>2011.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1153,7 +1186,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1168,12 +1201,12 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
